--- a/src/price/price.xlsx
+++ b/src/price/price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Egger2024\src\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21768E1F-000C-41C4-9144-DA1E8E19B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F29A7F5-6E28-47CA-A806-810D1F9E363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="2" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
@@ -1307,7 +1307,8 @@
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="8.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
